--- a/data/trans_orig/P14B32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B32-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4A532E-858A-42FB-A224-6E819F545504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F4B529-8E9C-4D42-A7CA-2D37E55D7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E789685F-84D7-4FE2-8326-99C2F12832AA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FAFC515-1396-48FA-8A00-44105CC47C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>71,32%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -129,10 +129,10 @@
     <t>28,68%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -150,37 +150,37 @@
     <t>68,05%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>25,86%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -192,16 +192,16 @@
     <t>18,65%</t>
   </si>
   <si>
-    <t>48,41%</t>
+    <t>56,1%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
   </si>
   <si>
     <t>24,81%</t>
@@ -210,16 +210,16 @@
     <t>81,35%</t>
   </si>
   <si>
-    <t>51,59%</t>
+    <t>43,9%</t>
   </si>
   <si>
     <t>64,3%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -234,7 +234,7 @@
     <t>34,01%</t>
   </si>
   <si>
-    <t>83,58%</t>
+    <t>83,94%</t>
   </si>
   <si>
     <t>59,83%</t>
@@ -246,7 +246,7 @@
     <t>65,99%</t>
   </si>
   <si>
-    <t>16,42%</t>
+    <t>16,06%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -261,16 +261,16 @@
     <t>13,27%</t>
   </si>
   <si>
-    <t>62,72%</t>
+    <t>63,92%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>79,81%</t>
@@ -282,16 +282,16 @@
     <t>86,73%</t>
   </si>
   <si>
-    <t>37,28%</t>
+    <t>36,08%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -342,55 +342,55 @@
     <t>49,08%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -405,16 +405,16 @@
     <t>58,29%</t>
   </si>
   <si>
-    <t>16,74%</t>
+    <t>14,5%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>32,87%</t>
@@ -423,16 +423,16 @@
     <t>41,71%</t>
   </si>
   <si>
-    <t>83,26%</t>
+    <t>85,5%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>66,89%</t>
@@ -462,37 +462,37 @@
     <t>52,83%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>47,17%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>61,49%</t>
@@ -579,7 +579,7 @@
     <t>34,02%</t>
   </si>
   <si>
-    <t>77,6%</t>
+    <t>78,01%</t>
   </si>
   <si>
     <t>34,66%</t>
@@ -594,61 +594,61 @@
     <t>65,98%</t>
   </si>
   <si>
-    <t>22,4%</t>
+    <t>21,99%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B80181-38D6-4033-892A-B2D66C7F874C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B30C8-9B24-4768-8364-F3500314FC75}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2567,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40885F6-D68F-43DC-87BE-3B1ECF538753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D78681E-D66A-4540-A49F-CB1C290B757C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B32-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F4B529-8E9C-4D42-A7CA-2D37E55D7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E9A69D-4FD0-4644-A699-5925F4B3FBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FAFC515-1396-48FA-8A00-44105CC47C3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DAF5324-7AF7-4887-950C-32145D0A2A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="206">
   <si>
     <t>Población cuya incontinencia urinaria le limita en 2012 (Tasa respuesta: 1,08%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>68,99%</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -120,19 +120,19 @@
     <t>31,01%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -150,37 +150,37 @@
     <t>68,05%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
   </si>
   <si>
     <t>25,86%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -192,16 +192,16 @@
     <t>18,65%</t>
   </si>
   <si>
-    <t>56,1%</t>
+    <t>54,14%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
   </si>
   <si>
     <t>24,81%</t>
@@ -210,16 +210,16 @@
     <t>81,35%</t>
   </si>
   <si>
-    <t>43,9%</t>
+    <t>45,86%</t>
   </si>
   <si>
     <t>64,3%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -228,25 +228,25 @@
     <t>40,17%</t>
   </si>
   <si>
-    <t>81,23%</t>
+    <t>81,01%</t>
   </si>
   <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>83,94%</t>
+    <t>83,26%</t>
   </si>
   <si>
     <t>59,83%</t>
   </si>
   <si>
-    <t>18,77%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>65,99%</t>
   </si>
   <si>
-    <t>16,06%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -255,43 +255,43 @@
     <t>20,19%</t>
   </si>
   <si>
-    <t>56,57%</t>
+    <t>56,68%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>63,92%</t>
+    <t>63,96%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
   </si>
   <si>
     <t>79,81%</t>
   </si>
   <si>
-    <t>43,43%</t>
+    <t>43,32%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>36,08%</t>
+    <t>36,04%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -303,19 +303,19 @@
     <t>37,49%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
   <si>
     <t>45,1%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>33,32%</t>
@@ -324,79 +324,79 @@
     <t>62,51%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>54,9%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya incontinencia urinaria le limita en 2015 (Tasa respuesta: 0,96%)</t>
+    <t>Población cuya incontinencia urinaria le limita en 2016 (Tasa respuesta: 0,96%)</t>
   </si>
   <si>
     <t>67,13%</t>
@@ -405,16 +405,16 @@
     <t>58,29%</t>
   </si>
   <si>
-    <t>14,5%</t>
+    <t>16,23%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>32,87%</t>
@@ -423,16 +423,16 @@
     <t>41,71%</t>
   </si>
   <si>
-    <t>85,5%</t>
+    <t>83,77%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>66,89%</t>
@@ -441,10 +441,13 @@
     <t>77,14%</t>
   </si>
   <si>
+    <t>26,3%</t>
+  </si>
+  <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>27,38%</t>
+    <t>29,99%</t>
   </si>
   <si>
     <t>33,11%</t>
@@ -453,46 +456,49 @@
     <t>22,86%</t>
   </si>
   <si>
+    <t>73,7%</t>
+  </si>
+  <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>72,62%</t>
+    <t>70,01%</t>
   </si>
   <si>
     <t>52,83%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>47,17%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>61,49%</t>
@@ -507,10 +513,10 @@
     <t>66,41%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>38,51%</t>
@@ -525,10 +531,10 @@
     <t>33,59%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
   </si>
   <si>
     <t>49,9%</t>
@@ -537,16 +543,16 @@
     <t>15,43%</t>
   </si>
   <si>
-    <t>39,38%</t>
+    <t>44,9%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>50,1%</t>
@@ -555,16 +561,16 @@
     <t>84,57%</t>
   </si>
   <si>
-    <t>60,62%</t>
+    <t>55,1%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>65,34%</t>
@@ -573,13 +579,13 @@
     <t>22,23%</t>
   </si>
   <si>
-    <t>83,27%</t>
+    <t>80,6%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>78,01%</t>
+    <t>78,49%</t>
   </si>
   <si>
     <t>34,66%</t>
@@ -588,67 +594,67 @@
     <t>77,77%</t>
   </si>
   <si>
-    <t>16,73%</t>
+    <t>19,4%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>21,99%</t>
+    <t>21,51%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B30C8-9B24-4768-8364-F3500314FC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AB6A49-A502-48A0-B06F-239321BE23F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2567,7 +2573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D78681E-D66A-4540-A49F-CB1C290B757C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7543549-A0B7-47D5-A07D-61039300B6BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2864,7 +2870,7 @@
         <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2876,10 +2882,10 @@
         <v>5401</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2897,7 +2903,7 @@
         <v>865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>23</v>
@@ -2912,13 +2918,13 @@
         <v>1083</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2927,13 +2933,13 @@
         <v>1948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3159,13 @@
         <v>8015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3168,13 +3174,13 @@
         <v>8015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3210,13 @@
         <v>7157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3219,13 +3225,13 @@
         <v>8127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,10 +3448,10 @@
         <v>2607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3457,7 +3463,7 @@
         <v>2519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>23</v>
@@ -3472,13 +3478,13 @@
         <v>5125</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3499,13 @@
         <v>1632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3508,7 +3514,7 @@
         <v>960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
@@ -3523,13 +3529,13 @@
         <v>2592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3603,7 @@
         <v>1802</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>23</v>
@@ -3612,13 +3618,13 @@
         <v>2542</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3627,13 +3633,13 @@
         <v>4344</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3654,7 @@
         <v>1810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>23</v>
@@ -3663,10 +3669,10 @@
         <v>13936</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>14</v>
@@ -3678,13 +3684,13 @@
         <v>15746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3758,7 @@
         <v>1477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>23</v>
@@ -3767,13 +3773,13 @@
         <v>1336</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3782,13 +3788,13 @@
         <v>2812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,7 +3809,7 @@
         <v>783</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
@@ -3818,10 +3824,10 @@
         <v>4671</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>14</v>
@@ -3833,10 +3839,10 @@
         <v>5455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>14</v>
@@ -3907,13 +3913,13 @@
         <v>10511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3922,13 +3928,13 @@
         <v>21211</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -3937,13 +3943,13 @@
         <v>31722</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3964,13 @@
         <v>7005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -3973,13 +3979,13 @@
         <v>30059</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -3988,13 +3994,13 @@
         <v>37064</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
